--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_1.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_1.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_1.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-262234.7830886721</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14015837.94718544</v>
+        <v>12647916.69188259</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30521977.82306018</v>
+        <v>29154056.5677573</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.707744005358664e-11</v>
+        <v>765682.3204228566</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8862,13 +8862,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>214.587604768856</v>
@@ -22591,10 +22591,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
@@ -22646,7 +22646,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>123.666686</v>
@@ -22673,7 +22673,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -22728,10 +22728,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>131.5125593742073</v>
@@ -22749,7 +22749,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q4" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
@@ -22807,7 +22807,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>214.587604768856</v>
@@ -22825,13 +22825,13 @@
         <v>224.3457561361446</v>
       </c>
       <c r="P5" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>216.7480476275882</v>
       </c>
       <c r="R5" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -22883,16 +22883,16 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>138.5806830739679</v>
@@ -22910,7 +22910,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
@@ -22965,10 +22965,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>131.5125593742073</v>
@@ -22986,7 +22986,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q7" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
         <v>173.3911476697823</v>
@@ -23044,7 +23044,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>214.587604768856</v>
@@ -23065,10 +23065,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -23120,7 +23120,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>123.666686</v>
@@ -23141,7 +23141,7 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -23202,10 +23202,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>131.5125593742073</v>
@@ -23223,7 +23223,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q10" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -23302,10 +23302,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
@@ -23357,7 +23357,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>123.666686</v>
@@ -23384,7 +23384,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R12" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
         <v>168.9616139056444</v>
@@ -23454,13 +23454,13 @@
         <v>124.4934058536024</v>
       </c>
       <c r="O13" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>134.2848039479189</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
         <v>173.3911476697823</v>
@@ -23518,7 +23518,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
         <v>214.587604768856</v>
@@ -23539,10 +23539,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
         <v>205.8649517235392</v>
@@ -23621,7 +23621,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R15" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
         <v>168.9616139056444</v>
@@ -23676,10 +23676,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>131.5125593742073</v>
@@ -23776,10 +23776,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
         <v>205.8649517235392</v>
@@ -23858,7 +23858,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R18" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
         <v>168.9616139056444</v>
@@ -23916,7 +23916,7 @@
         <v>123.8205359034112</v>
       </c>
       <c r="K19" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L19" t="n">
         <v>131.5125593742073</v>
@@ -23934,7 +23934,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
         <v>173.3911476697823</v>
@@ -23992,7 +23992,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K20" t="n">
         <v>214.587604768856</v>
@@ -24013,10 +24013,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
         <v>205.8649517235392</v>
@@ -24095,7 +24095,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R21" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
         <v>168.9616139056444</v>
@@ -24150,10 +24150,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J22" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K22" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L22" t="n">
         <v>131.5125593742073</v>
@@ -24171,7 +24171,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R22" t="n">
         <v>173.3911476697823</v>
@@ -24229,7 +24229,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
         <v>214.587604768856</v>
@@ -24332,7 +24332,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R24" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
         <v>168.9616139056444</v>
@@ -24387,10 +24387,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J25" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K25" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L25" t="n">
         <v>131.5125593742073</v>
@@ -24408,7 +24408,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R25" t="n">
         <v>173.3911476697823</v>
@@ -24466,7 +24466,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J26" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
         <v>214.587604768856</v>
@@ -24487,10 +24487,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
@@ -24542,7 +24542,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J27" t="n">
         <v>123.666686</v>
@@ -24569,7 +24569,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
         <v>168.9616139056444</v>
@@ -24624,10 +24624,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J28" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K28" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L28" t="n">
         <v>131.5125593742073</v>
@@ -24645,7 +24645,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q28" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
         <v>173.3911476697823</v>
@@ -24724,10 +24724,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
         <v>205.8649517235392</v>
@@ -24779,7 +24779,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J30" t="n">
         <v>123.666686</v>
@@ -24806,7 +24806,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R30" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
         <v>168.9616139056444</v>
@@ -24861,10 +24861,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J31" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K31" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L31" t="n">
         <v>131.5125593742073</v>
@@ -24882,7 +24882,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q31" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R31" t="n">
         <v>173.3911476697823</v>
@@ -25016,10 +25016,10 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J33" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>134.395403</v>
@@ -25043,7 +25043,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
         <v>168.9616139056444</v>
@@ -25098,10 +25098,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J34" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K34" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L34" t="n">
         <v>131.5125593742073</v>
@@ -25119,7 +25119,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q34" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R34" t="n">
         <v>173.3911476697823</v>
@@ -25198,10 +25198,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
@@ -25253,7 +25253,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J36" t="n">
         <v>123.666686</v>
@@ -25280,7 +25280,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R36" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
         <v>168.9616139056444</v>
@@ -25335,7 +25335,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J37" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K37" t="n">
         <v>125.787926716272</v>
@@ -25356,7 +25356,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R37" t="n">
         <v>173.3911476697823</v>
@@ -25414,7 +25414,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
         <v>214.587604768856</v>
@@ -25435,10 +25435,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
         <v>205.8649517235392</v>
@@ -25490,10 +25490,10 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>134.395403</v>
@@ -25517,7 +25517,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R39" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
         <v>168.9616139056444</v>
@@ -25572,10 +25572,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J40" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K40" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L40" t="n">
         <v>131.5125593742073</v>
@@ -25593,7 +25593,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R40" t="n">
         <v>173.3911476697823</v>
@@ -25651,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>214.587604768856</v>
@@ -25672,10 +25672,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
@@ -25727,7 +25727,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
         <v>123.666686</v>
@@ -25754,7 +25754,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
         <v>168.9616139056444</v>
@@ -25830,7 +25830,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q43" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
         <v>173.3911476697823</v>
@@ -25909,10 +25909,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
         <v>205.8649517235392</v>
@@ -25991,7 +25991,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R45" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
         <v>168.9616139056444</v>
@@ -26046,7 +26046,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J46" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K46" t="n">
         <v>125.787926716272</v>
@@ -26067,7 +26067,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R46" t="n">
         <v>173.3911476697823</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>78598.03059176047</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>100109.3467499215</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>84865.87234141289</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>53282.09986869356</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>74910.52988417396</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>51467.93708861116</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>77805.48431214185</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>37524.67678043211</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>78598.03059176047</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>53750.70340379169</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>22777.05066044191</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>49021.5275796582</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>87905.18538012044</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>72378.63473206505</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-7.530616130679845e-12</v>
+        <v>48228.9813000396</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1107.014515376909</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1409.99079929467</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1195.293976639619</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>750.4521108266702</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1055.077885692592</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>724.9005223748052</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1095.851891720308</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>528.5165743722833</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1107.014515376909</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>757.0521606167846</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>320.8035304287596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>690.4440504177214</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1238.101202536909</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1019.417390592466</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>679.2814267611213</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2214.029030753817</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2819.981598589339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2390.587953279237</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1500.90422165334</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2110.155771385183</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1449.80104474961</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2191.703783440617</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1057.033148744567</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2214.029030753817</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1514.104321233569</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>641.6070608575191</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1380.888100835443</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2476.202405073817</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2038.834781184932</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1358.562853522243</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.5852153734</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.58521537341</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.5852153734</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
     </row>
   </sheetData>
